--- a/Bern_2022/LENA_Wahlen_Bern_Texte.xlsx
+++ b/Bern_2022/LENA_Wahlen_Bern_Texte.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/LENA_Project/lena_wahlen/Bern_2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_EDD09775C3574AFC1248483282578B760631DE76" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBE8B75D-E4D0-4FBC-9E5B-B6FA1F997AF0}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_EDD09775C3574AFC1248483282578B760631DE76" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C230D04-566D-40A5-B2EC-223BB9B42CFC}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -167,7 +167,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -175,13 +175,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -196,9 +210,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -517,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,20 +548,20 @@
     <col min="5" max="5" width="59.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -702,5 +720,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>